--- a/output_data/result_ShftSchedule.xlsx
+++ b/output_data/result_ShftSchedule.xlsx
@@ -322,7 +322,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -337,12 +337,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -364,7 +364,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -374,7 +374,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -384,7 +384,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -448,7 +448,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -490,12 +490,12 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -710,12 +710,12 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
